--- a/vertx-env/exec-toolkit/configuration/menu/zero-psi/APP-80300-4810-1010-zero.am.config-SIDE.xlsx
+++ b/vertx-env/exec-toolkit/configuration/menu/zero-psi/APP-80300-4810-1010-zero.am.config-SIDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-psi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CAB782-A3EE-6548-A54B-A7E7DF306162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B8D2A-073A-FC47-B15F-5FDE32E7849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46360" yWindow="960" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-46640" yWindow="5600" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
